--- a/biology/Médecine/Marc_Magro/Marc_Magro.xlsx
+++ b/biology/Médecine/Marc_Magro/Marc_Magro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Magro (né en Haute-Savoie le 25 septembre 1965[1]) est un médecin urgentiste et écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Magro (né en Haute-Savoie le 25 septembre 1965) est un médecin urgentiste et écrivain français.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Témoignages - Essais - Documents
-Dans l'intimité de l'humain au coeur des urgences. « J’ai vu dans vos vie l’urgence d’être heureux », Christine Bonneton, 2024
+          <t>Témoignages - Essais - Documents</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans l'intimité de l'humain au coeur des urgences. « J’ai vu dans vos vie l’urgence d’être heureux », Christine Bonneton, 2024
 Des rires sous le masque: Perles de COVID,  Éditions Les uns et les autres,12 août 2021
 Première vague COVID: Les urgences pendant le confinement, Éditions Les uns et les autres, 27 janvier 2021
 Bon pied bon œil et 99 autres expressions autour de la santé et du corps, Éditions First, 2018
@@ -523,18 +540,86 @@
 Ils sont fous ces psys, Éditions First, 2015
 Sous l’œil d’Hippocrate, Éditions First, 2014
 Un pouls dans la tête, chroniques étonnantes de la médecine d’hier et d’aujourd’hui, Éditions First, 2016
-Médecin d’urgences, Éditions First, 2013
-Romans
-Le silence des corps, Christine Bonneton 2023. (Thriller psychologique)
+Médecin d’urgences, Éditions First, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Marc_Magro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Magro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Témoignages, essais, documents, romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le silence des corps, Christine Bonneton 2023. (Thriller psychologique)
 Même pas morts, De Borée, 2021. (Roman policier)
 Un menu pour l'enfer, De Borée, avril 2019. (Roman policier)
 Via Ameglio, Glyphe, 2013
 Nom de code Jules Verne, Glyphe, 2011
 Le Serment de Jules, Glyphe, 2010
 Le Syndrome de Verne, Glyphe, 2009
-Chambre X, Glyphe, 2007
-Recueil de nouvelles
-Si vous preniez de mes nouvelles, éditions Glyphe, 2012 à la suite du Prix Cesare Pavese 2011[2].</t>
+Chambre X, Glyphe, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_Magro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Magro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Témoignages, essais, documents, romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Si vous preniez de mes nouvelles, éditions Glyphe, 2012 à la suite du Prix Cesare Pavese 2011.</t>
         </is>
       </c>
     </row>
